--- a/stock_historical_data/1wk/CANBK.NS.xlsx
+++ b/stock_historical_data/1wk/CANBK.NS.xlsx
@@ -63189,7 +63189,9 @@
       <c r="Q1120" t="n">
         <v>0</v>
       </c>
-      <c r="R1120" t="inlineStr"/>
+      <c r="R1120" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/CANBK.NS.xlsx
+++ b/stock_historical_data/1wk/CANBK.NS.xlsx
@@ -59880,7 +59880,9 @@
       <c r="P1121" t="n">
         <v>0</v>
       </c>
-      <c r="Q1121" t="inlineStr"/>
+      <c r="Q1121" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/CANBK.NS.xlsx
+++ b/stock_historical_data/1wk/CANBK.NS.xlsx
@@ -63301,7 +63301,9 @@
       <c r="Q1122" t="n">
         <v>0</v>
       </c>
-      <c r="R1122" t="inlineStr"/>
+      <c r="R1122" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/CANBK.NS.xlsx
+++ b/stock_historical_data/1wk/CANBK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1122"/>
+  <dimension ref="A1:R1124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63305,6 +63305,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1123">
+      <c r="A1123" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1123" t="n">
+        <v>120.8099975585938</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>122.8499984741211</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>118.5</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>119.120002746582</v>
+      </c>
+      <c r="F1123" t="n">
+        <v>119.120002746582</v>
+      </c>
+      <c r="G1123" t="n">
+        <v>130889980</v>
+      </c>
+      <c r="H1123" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1123" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1123" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1123" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1123" t="inlineStr"/>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1124" t="n">
+        <v>118</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>121.8899993896484</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>116.2099990844727</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>119.4700012207031</v>
+      </c>
+      <c r="F1124" t="n">
+        <v>119.4700012207031</v>
+      </c>
+      <c r="G1124" t="n">
+        <v>174615903</v>
+      </c>
+      <c r="H1124" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1124" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1124" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1124" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1124" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/CANBK.NS.xlsx
+++ b/stock_historical_data/1wk/CANBK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1124"/>
+  <dimension ref="A1:R1140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -4163,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
@@ -63237,7 +63237,7 @@
         <v>23</v>
       </c>
       <c r="O1121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P1121" t="n">
         <v>0</v>
@@ -63357,7 +63357,9 @@
       <c r="Q1123" t="n">
         <v>0</v>
       </c>
-      <c r="R1123" t="inlineStr"/>
+      <c r="R1123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1124">
       <c r="A1124" s="2" t="n">
@@ -63411,7 +63413,873 @@
       <c r="Q1124" t="n">
         <v>0</v>
       </c>
-      <c r="R1124" t="inlineStr"/>
+      <c r="R1124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1125" t="n">
+        <v>119.3499984741211</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>120.1900024414062</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>115.5</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>117.7600021362305</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>117.7600021362305</v>
+      </c>
+      <c r="G1125" t="n">
+        <v>100131698</v>
+      </c>
+      <c r="H1125" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1125" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1125" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1125" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1125" t="inlineStr"/>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1126" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>118.0800018310547</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>112.3000030517578</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>112.7200012207031</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>112.7200012207031</v>
+      </c>
+      <c r="G1126" t="n">
+        <v>125834974</v>
+      </c>
+      <c r="H1126" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1126" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1126" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1126" t="inlineStr"/>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1127" t="n">
+        <v>113.25</v>
+      </c>
+      <c r="C1127" t="n">
+        <v>118.1100006103516</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>112.3300018310547</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>112.8899993896484</v>
+      </c>
+      <c r="F1127" t="n">
+        <v>112.8899993896484</v>
+      </c>
+      <c r="G1127" t="n">
+        <v>141782015</v>
+      </c>
+      <c r="H1127" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1127" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1127" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1127" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1127" t="inlineStr"/>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1128" t="n">
+        <v>112.8000030517578</v>
+      </c>
+      <c r="C1128" t="n">
+        <v>115.4899978637695</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>109</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>113.8600006103516</v>
+      </c>
+      <c r="F1128" t="n">
+        <v>113.8600006103516</v>
+      </c>
+      <c r="G1128" t="n">
+        <v>203853368</v>
+      </c>
+      <c r="H1128" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1128" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1128" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1128" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1128" t="inlineStr"/>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1129" t="n">
+        <v>115.1999969482422</v>
+      </c>
+      <c r="C1129" t="n">
+        <v>117.8199996948242</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>110.0500030517578</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>110.4899978637695</v>
+      </c>
+      <c r="F1129" t="n">
+        <v>110.4899978637695</v>
+      </c>
+      <c r="G1129" t="n">
+        <v>139329247</v>
+      </c>
+      <c r="H1129" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1129" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1129" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1129" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1129" t="inlineStr"/>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1130" t="n">
+        <v>108.4400024414062</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>112.5400009155273</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>104.0400009155273</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>110.6500015258789</v>
+      </c>
+      <c r="F1130" t="n">
+        <v>110.6500015258789</v>
+      </c>
+      <c r="G1130" t="n">
+        <v>147956939</v>
+      </c>
+      <c r="H1130" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1130" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1130" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1130" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1130" t="inlineStr"/>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1131" t="n">
+        <v>109.9000015258789</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>110.7600021362305</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>107.620002746582</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>107.620002746582</v>
+      </c>
+      <c r="G1131" t="n">
+        <v>85508591</v>
+      </c>
+      <c r="H1131" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1131" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1131" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1131" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1131" t="inlineStr"/>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1132" t="n">
+        <v>108.3000030517578</v>
+      </c>
+      <c r="C1132" t="n">
+        <v>112.9899978637695</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>108.0800018310547</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>112.0999984741211</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>112.0999984741211</v>
+      </c>
+      <c r="G1132" t="n">
+        <v>94610840</v>
+      </c>
+      <c r="H1132" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1132" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1132" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1132" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1132" t="inlineStr"/>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1133" t="n">
+        <v>113.1600036621094</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>113.1900024414062</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>108.8499984741211</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>111.5299987792969</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>111.5299987792969</v>
+      </c>
+      <c r="G1133" t="n">
+        <v>74014250</v>
+      </c>
+      <c r="H1133" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1133" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1133" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1133" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1133" t="inlineStr"/>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1134" t="n">
+        <v>111.8600006103516</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>113.4599990844727</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>102.9499969482422</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>103.379997253418</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>103.379997253418</v>
+      </c>
+      <c r="G1134" t="n">
+        <v>162619891</v>
+      </c>
+      <c r="H1134" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1134" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1134" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1134" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1134" t="inlineStr"/>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1135" t="n">
+        <v>103.5999984741211</v>
+      </c>
+      <c r="C1135" t="n">
+        <v>107.25</v>
+      </c>
+      <c r="D1135" t="n">
+        <v>100.6900024414062</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>106.3899993896484</v>
+      </c>
+      <c r="F1135" t="n">
+        <v>106.3899993896484</v>
+      </c>
+      <c r="G1135" t="n">
+        <v>142400116</v>
+      </c>
+      <c r="H1135" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1135" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1135" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1135" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1135" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1135" t="inlineStr"/>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1136" t="n">
+        <v>106.9000015258789</v>
+      </c>
+      <c r="C1136" t="n">
+        <v>108.1800003051758</v>
+      </c>
+      <c r="D1136" t="n">
+        <v>102.7200012207031</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>104.9599990844727</v>
+      </c>
+      <c r="F1136" t="n">
+        <v>104.9599990844727</v>
+      </c>
+      <c r="G1136" t="n">
+        <v>86000137</v>
+      </c>
+      <c r="H1136" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1136" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1136" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1136" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1136" t="inlineStr"/>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1137" t="n">
+        <v>105.8000030517578</v>
+      </c>
+      <c r="C1137" t="n">
+        <v>113.3000030517578</v>
+      </c>
+      <c r="D1137" t="n">
+        <v>105.0500030517578</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>113.0999984741211</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>113.0999984741211</v>
+      </c>
+      <c r="G1137" t="n">
+        <v>240494416</v>
+      </c>
+      <c r="H1137" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1137" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1137" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1137" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1137" t="inlineStr"/>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1138" t="n">
+        <v>113</v>
+      </c>
+      <c r="C1138" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="D1138" t="n">
+        <v>106.5100021362305</v>
+      </c>
+      <c r="E1138" t="n">
+        <v>107.620002746582</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>107.620002746582</v>
+      </c>
+      <c r="G1138" t="n">
+        <v>87128675</v>
+      </c>
+      <c r="H1138" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1138" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1138" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1138" t="inlineStr"/>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1139" t="n">
+        <v>108.2399978637695</v>
+      </c>
+      <c r="C1139" t="n">
+        <v>109.0500030517578</v>
+      </c>
+      <c r="D1139" t="n">
+        <v>102.3399963378906</v>
+      </c>
+      <c r="E1139" t="n">
+        <v>104.0599975585938</v>
+      </c>
+      <c r="F1139" t="n">
+        <v>104.0599975585938</v>
+      </c>
+      <c r="G1139" t="n">
+        <v>108484220</v>
+      </c>
+      <c r="H1139" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1139" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1139" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1139" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1139" t="inlineStr"/>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1140" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="C1140" t="n">
+        <v>105.4400024414062</v>
+      </c>
+      <c r="D1140" t="n">
+        <v>100.7699966430664</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>104.6699981689453</v>
+      </c>
+      <c r="F1140" t="n">
+        <v>104.6699981689453</v>
+      </c>
+      <c r="G1140" t="n">
+        <v>65738218</v>
+      </c>
+      <c r="H1140" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1140" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1140" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1140" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1140" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/CANBK.NS.xlsx
+++ b/stock_historical_data/1wk/CANBK.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1140"/>
+  <dimension ref="A1:R1163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
@@ -5507,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="Q90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -63469,7 +63469,9 @@
       <c r="Q1125" t="n">
         <v>0</v>
       </c>
-      <c r="R1125" t="inlineStr"/>
+      <c r="R1125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1126">
       <c r="A1126" s="2" t="n">
@@ -63523,7 +63525,9 @@
       <c r="Q1126" t="n">
         <v>0</v>
       </c>
-      <c r="R1126" t="inlineStr"/>
+      <c r="R1126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1127">
       <c r="A1127" s="2" t="n">
@@ -63577,7 +63581,9 @@
       <c r="Q1127" t="n">
         <v>0</v>
       </c>
-      <c r="R1127" t="inlineStr"/>
+      <c r="R1127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1128">
       <c r="A1128" s="2" t="n">
@@ -63631,7 +63637,9 @@
       <c r="Q1128" t="n">
         <v>0</v>
       </c>
-      <c r="R1128" t="inlineStr"/>
+      <c r="R1128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1129">
       <c r="A1129" s="2" t="n">
@@ -63685,7 +63693,9 @@
       <c r="Q1129" t="n">
         <v>0</v>
       </c>
-      <c r="R1129" t="inlineStr"/>
+      <c r="R1129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1130">
       <c r="A1130" s="2" t="n">
@@ -63739,7 +63749,9 @@
       <c r="Q1130" t="n">
         <v>0</v>
       </c>
-      <c r="R1130" t="inlineStr"/>
+      <c r="R1130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1131">
       <c r="A1131" s="2" t="n">
@@ -63793,7 +63805,9 @@
       <c r="Q1131" t="n">
         <v>0</v>
       </c>
-      <c r="R1131" t="inlineStr"/>
+      <c r="R1131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1132">
       <c r="A1132" s="2" t="n">
@@ -63847,7 +63861,9 @@
       <c r="Q1132" t="n">
         <v>0</v>
       </c>
-      <c r="R1132" t="inlineStr"/>
+      <c r="R1132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1133">
       <c r="A1133" s="2" t="n">
@@ -63901,7 +63917,9 @@
       <c r="Q1133" t="n">
         <v>0</v>
       </c>
-      <c r="R1133" t="inlineStr"/>
+      <c r="R1133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1134">
       <c r="A1134" s="2" t="n">
@@ -63955,7 +63973,9 @@
       <c r="Q1134" t="n">
         <v>0</v>
       </c>
-      <c r="R1134" t="inlineStr"/>
+      <c r="R1134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1135">
       <c r="A1135" s="2" t="n">
@@ -64009,7 +64029,9 @@
       <c r="Q1135" t="n">
         <v>0</v>
       </c>
-      <c r="R1135" t="inlineStr"/>
+      <c r="R1135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1136">
       <c r="A1136" s="2" t="n">
@@ -64063,7 +64085,9 @@
       <c r="Q1136" t="n">
         <v>0</v>
       </c>
-      <c r="R1136" t="inlineStr"/>
+      <c r="R1136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1137">
       <c r="A1137" s="2" t="n">
@@ -64117,7 +64141,9 @@
       <c r="Q1137" t="n">
         <v>0</v>
       </c>
-      <c r="R1137" t="inlineStr"/>
+      <c r="R1137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1138">
       <c r="A1138" s="2" t="n">
@@ -64163,7 +64189,7 @@
         <v>40</v>
       </c>
       <c r="O1138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1138" t="n">
         <v>0</v>
@@ -64171,7 +64197,9 @@
       <c r="Q1138" t="n">
         <v>0</v>
       </c>
-      <c r="R1138" t="inlineStr"/>
+      <c r="R1138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1139">
       <c r="A1139" s="2" t="n">
@@ -64225,7 +64253,9 @@
       <c r="Q1139" t="n">
         <v>0</v>
       </c>
-      <c r="R1139" t="inlineStr"/>
+      <c r="R1139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1140">
       <c r="A1140" s="2" t="n">
@@ -64279,7 +64309,1205 @@
       <c r="Q1140" t="n">
         <v>0</v>
       </c>
-      <c r="R1140" t="inlineStr"/>
+      <c r="R1140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1141" t="n">
+        <v>104.9000015258789</v>
+      </c>
+      <c r="C1141" t="n">
+        <v>105.5999984741211</v>
+      </c>
+      <c r="D1141" t="n">
+        <v>92.98000335693359</v>
+      </c>
+      <c r="E1141" t="n">
+        <v>94.23999786376953</v>
+      </c>
+      <c r="F1141" t="inlineStr"/>
+      <c r="G1141" t="n">
+        <v>123275682</v>
+      </c>
+      <c r="H1141" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1141" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1141" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1141" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1141" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1141" t="inlineStr"/>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>95.40000152587891</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>104.9499969482422</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>94.75</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>103.9599990844727</v>
+      </c>
+      <c r="F1142" t="inlineStr"/>
+      <c r="G1142" t="n">
+        <v>160534459</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1142" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1142" t="inlineStr"/>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>106.4899978637695</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>103.6900024414062</v>
+      </c>
+      <c r="F1143" t="inlineStr"/>
+      <c r="G1143" t="n">
+        <v>121580108</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1143" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1143" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1143" t="inlineStr"/>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>103</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>105.1399993896484</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>97.22000122070312</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>97.48999786376953</v>
+      </c>
+      <c r="F1144" t="inlineStr"/>
+      <c r="G1144" t="n">
+        <v>77718698</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1144" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1144" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1144" t="inlineStr"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>101.2699966430664</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>92.51999664306641</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>97.01000213623047</v>
+      </c>
+      <c r="F1145" t="inlineStr"/>
+      <c r="G1145" t="n">
+        <v>106127016</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1145" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1145" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>100</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>103.75</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>99.37999725341797</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>102.0100021362305</v>
+      </c>
+      <c r="F1146" t="inlineStr"/>
+      <c r="G1146" t="n">
+        <v>116928931</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1146" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>101.6900024414062</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>110.8000030517578</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>101.1500015258789</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>109.3199996948242</v>
+      </c>
+      <c r="F1147" t="inlineStr"/>
+      <c r="G1147" t="n">
+        <v>183293563</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1147" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1147" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1147" t="inlineStr"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>109.5999984741211</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>110.25</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>104</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>106.5800018310547</v>
+      </c>
+      <c r="F1148" t="inlineStr"/>
+      <c r="G1148" t="n">
+        <v>78850029</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>108.4100036621094</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>99.37000274658203</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>99.61000061035156</v>
+      </c>
+      <c r="F1149" t="inlineStr"/>
+      <c r="G1149" t="n">
+        <v>82783290</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>101.0999984741211</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>102.629997253418</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>99.09999847412109</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>100.3600006103516</v>
+      </c>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="n">
+        <v>58180062</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>100.3600006103516</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>103.1399993896484</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>98.69999694824219</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>101.4499969482422</v>
+      </c>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="n">
+        <v>98702452</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>101.4499969482422</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>101.7699966430664</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>92.65000152587891</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>92.83000183105469</v>
+      </c>
+      <c r="F1152" t="inlineStr"/>
+      <c r="G1152" t="n">
+        <v>105780308</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>92.15000152587891</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>98.37000274658203</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>87.79000091552734</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>97.87999725341797</v>
+      </c>
+      <c r="F1153" t="inlineStr"/>
+      <c r="G1153" t="n">
+        <v>144958332</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>98.11000061035156</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>102</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>95.72000122070312</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>96.75</v>
+      </c>
+      <c r="F1154" t="inlineStr"/>
+      <c r="G1154" t="n">
+        <v>83867019</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>96</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>97.59999847412109</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>90.31999969482422</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>92.62000274658203</v>
+      </c>
+      <c r="F1155" t="inlineStr"/>
+      <c r="G1155" t="n">
+        <v>187076475</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>91.91000366210938</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>96.90000152587891</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>89.47000122070312</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>94.05999755859375</v>
+      </c>
+      <c r="F1156" t="inlineStr"/>
+      <c r="G1156" t="n">
+        <v>102541383</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>94.05999755859375</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>94.44999694824219</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>84.72000122070312</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>85.62000274658203</v>
+      </c>
+      <c r="F1157" t="inlineStr"/>
+      <c r="G1157" t="n">
+        <v>113273410</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1157" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>85.61000061035156</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>89.25</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>83.51999664306641</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>87.33000183105469</v>
+      </c>
+      <c r="F1158" t="inlineStr"/>
+      <c r="G1158" t="n">
+        <v>118196090</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1158" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>87</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>87.75</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>80.25</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>80.90000152587891</v>
+      </c>
+      <c r="F1159" t="inlineStr"/>
+      <c r="G1159" t="n">
+        <v>86327543</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>86.76999664306641</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>78.59999847412109</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>85.01999664306641</v>
+      </c>
+      <c r="F1160" t="inlineStr"/>
+      <c r="G1160" t="n">
+        <v>105914150</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1160" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1160" t="inlineStr"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>85</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>85.43000030517578</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>81.40000152587891</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>82.90000152587891</v>
+      </c>
+      <c r="F1161" t="inlineStr"/>
+      <c r="G1161" t="n">
+        <v>76790081</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>83.30000305175781</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>88.25</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>82.16999816894531</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>87.54000091552734</v>
+      </c>
+      <c r="F1162" t="inlineStr"/>
+      <c r="G1162" t="n">
+        <v>79284125</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1162" t="inlineStr"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>92.25</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>86.80000305175781</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>89</v>
+      </c>
+      <c r="F1163" t="inlineStr"/>
+      <c r="G1163" t="n">
+        <v>170293255</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1163" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1163" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
